--- a/static/core/system/org/importTemplete/部门导入.xlsx
+++ b/static/core/system/org/importTemplete/部门导入.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,9 +16,349 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
-  <si>
-    <t>部门ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="135">
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门领导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门OU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门信息1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门信息2</t>
+  </si>
+  <si>
+    <t>部门信息3</t>
+  </si>
+  <si>
+    <t>部门信息4</t>
+  </si>
+  <si>
+    <t>部门信息5</t>
+  </si>
+  <si>
+    <t>部门信息6</t>
+  </si>
+  <si>
+    <t>部门信息7</t>
+  </si>
+  <si>
+    <t>部门信息8</t>
+  </si>
+  <si>
+    <t>部门信息9</t>
+  </si>
+  <si>
+    <t>部门信息10</t>
+  </si>
+  <si>
+    <t>部门信息11</t>
+  </si>
+  <si>
+    <t>部门信息12</t>
+  </si>
+  <si>
+    <t>部门信息13</t>
+  </si>
+  <si>
+    <t>部门信息14</t>
+  </si>
+  <si>
+    <t>部门信息15</t>
+  </si>
+  <si>
+    <t>部门信息16</t>
+  </si>
+  <si>
+    <t>部门信息17</t>
+  </si>
+  <si>
+    <t>部门信息18</t>
+  </si>
+  <si>
+    <t>部门信息19</t>
+  </si>
+  <si>
+    <t>部门信息20</t>
+  </si>
+  <si>
+    <t>管理人员编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门领导编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本中心代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>D007</t>
+  </si>
+  <si>
+    <t>D008</t>
+  </si>
+  <si>
+    <t>集团总部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10002</t>
+  </si>
+  <si>
+    <t>C10003</t>
+  </si>
+  <si>
+    <t>C10004</t>
+  </si>
+  <si>
+    <t>C10005</t>
+  </si>
+  <si>
+    <t>C10006</t>
+  </si>
+  <si>
+    <t>C10007</t>
+  </si>
+  <si>
+    <t>C10008</t>
+  </si>
+  <si>
+    <t>D001001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001002</t>
+  </si>
+  <si>
+    <t>D001003</t>
+  </si>
+  <si>
+    <t>D001004</t>
+  </si>
+  <si>
+    <t>D001005</t>
+  </si>
+  <si>
+    <t>产品研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10009</t>
+  </si>
+  <si>
+    <t>C10010</t>
+  </si>
+  <si>
+    <t>C10011</t>
+  </si>
+  <si>
+    <t>C10012</t>
+  </si>
+  <si>
+    <t>C10013</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>D002001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002002</t>
+  </si>
+  <si>
+    <t>D002003</t>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10014</t>
+  </si>
+  <si>
+    <t>C10015</t>
+  </si>
+  <si>
+    <t>C10016</t>
+  </si>
+  <si>
+    <t>D002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本中心名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -26,136 +366,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门领导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门OU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门信息1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门信息2</t>
-  </si>
-  <si>
-    <t>部门信息3</t>
-  </si>
-  <si>
-    <t>部门信息4</t>
-  </si>
-  <si>
-    <t>部门信息5</t>
-  </si>
-  <si>
-    <t>部门信息6</t>
-  </si>
-  <si>
-    <t>部门信息7</t>
-  </si>
-  <si>
-    <t>部门信息8</t>
-  </si>
-  <si>
-    <t>部门信息9</t>
-  </si>
-  <si>
-    <t>部门信息10</t>
-  </si>
-  <si>
-    <t>部门信息11</t>
-  </si>
-  <si>
-    <t>部门信息12</t>
-  </si>
-  <si>
-    <t>部门信息13</t>
-  </si>
-  <si>
-    <t>部门信息14</t>
-  </si>
-  <si>
-    <t>部门信息15</t>
-  </si>
-  <si>
-    <t>部门信息16</t>
-  </si>
-  <si>
-    <t>部门信息17</t>
-  </si>
-  <si>
-    <t>部门信息18</t>
-  </si>
-  <si>
-    <t>部门信息19</t>
-  </si>
-  <si>
-    <t>部门信息20</t>
-  </si>
-  <si>
-    <t>管理人员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门领导编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本中心代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangsan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lisi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX集团</t>
+    <t>所属部门树ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门树ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件交付中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangyang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJJFZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJJFZX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,162 +398,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D002</t>
-  </si>
-  <si>
-    <t>D003</t>
-  </si>
-  <si>
-    <t>D004</t>
-  </si>
-  <si>
-    <t>D005</t>
-  </si>
-  <si>
-    <t>D006</t>
-  </si>
-  <si>
-    <t>D007</t>
-  </si>
-  <si>
-    <t>D008</t>
-  </si>
-  <si>
-    <t>集团总部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10002</t>
-  </si>
-  <si>
-    <t>C10003</t>
-  </si>
-  <si>
-    <t>C10004</t>
-  </si>
-  <si>
-    <t>C10005</t>
-  </si>
-  <si>
-    <t>C10006</t>
-  </si>
-  <si>
-    <t>C10007</t>
-  </si>
-  <si>
-    <t>C10008</t>
-  </si>
-  <si>
-    <t>D001001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D001002</t>
-  </si>
-  <si>
-    <t>D001003</t>
-  </si>
-  <si>
-    <t>D001004</t>
-  </si>
-  <si>
-    <t>D001005</t>
-  </si>
-  <si>
-    <t>产品研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10009</t>
-  </si>
-  <si>
-    <t>C10010</t>
-  </si>
-  <si>
-    <t>C10011</t>
-  </si>
-  <si>
-    <t>C10012</t>
-  </si>
-  <si>
-    <t>C10013</t>
-  </si>
-  <si>
-    <t>D001</t>
-  </si>
-  <si>
-    <t>D002001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D002002</t>
-  </si>
-  <si>
-    <t>D002003</t>
-  </si>
-  <si>
-    <t>财务部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10014</t>
-  </si>
-  <si>
-    <t>C10015</t>
-  </si>
-  <si>
-    <t>C10016</t>
-  </si>
-  <si>
-    <t>D002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>总经理室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动工程部（上海）</t>
+  </si>
+  <si>
+    <t>测试部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合管理部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJJFZX001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJJFZX002</t>
+  </si>
+  <si>
+    <t>RJJFZX003</t>
+  </si>
+  <si>
+    <t>RJJFZX004</t>
+  </si>
+  <si>
+    <t>RJJFZX005</t>
+  </si>
+  <si>
+    <t>RJJFZX006</t>
+  </si>
+  <si>
+    <t>RJJFZX007</t>
+  </si>
+  <si>
+    <t>RJJFZX008</t>
+  </si>
+  <si>
+    <t>renbin</t>
+  </si>
+  <si>
+    <t>任斌</t>
+  </si>
+  <si>
+    <t>李翔</t>
+  </si>
+  <si>
+    <t>lixiang</t>
+  </si>
+  <si>
+    <t>zhuzhx</t>
+  </si>
+  <si>
+    <t>朱正兴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>doujie</t>
+  </si>
+  <si>
+    <t>窦洁</t>
+  </si>
+  <si>
+    <t>huoming</t>
+  </si>
+  <si>
+    <t>霍明</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>huixin</t>
+  </si>
+  <si>
+    <t>惠昕</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,8 +528,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Geneva"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +576,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,10 +610,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,9 +635,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_Sheet1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -428,12 +671,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -475,7 +721,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,7 +756,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -719,384 +965,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="5" customWidth="1"/>
-    <col min="2" max="33" width="13.5" style="5"/>
+    <col min="1" max="1" width="13.5" style="8"/>
+    <col min="2" max="2" width="17.75" style="5" customWidth="1"/>
+    <col min="3" max="10" width="13.5" style="5"/>
+    <col min="11" max="11" width="10.125" style="5" customWidth="1"/>
+    <col min="12" max="33" width="13.5" style="5"/>
     <col min="34" max="16384" width="13.5" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="5">
         <v>2</v>
       </c>
       <c r="J3" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="5" t="s">
-        <v>41</v>
+      <c r="A4" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I4" s="5">
         <v>2</v>
       </c>
       <c r="J4" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
+      <c r="A5" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I5" s="5">
         <v>2</v>
       </c>
       <c r="J5" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
+      <c r="A6" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I6" s="5">
         <v>2</v>
       </c>
       <c r="J6" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:33">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
+      <c r="A7" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
       </c>
       <c r="J7" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="5" t="s">
-        <v>45</v>
+      <c r="A8" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I8" s="5">
         <v>2</v>
       </c>
       <c r="J8" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="5" t="s">
-        <v>46</v>
+      <c r="A9" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -1105,352 +1357,535 @@
         <v>8</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
+      <c r="A10" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
       </c>
       <c r="J10" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="5" t="s">
-        <v>63</v>
+      <c r="A11" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I11" s="5">
         <v>3</v>
       </c>
       <c r="J11" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I12" s="5">
         <v>3</v>
       </c>
       <c r="J12" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I13" s="5">
         <v>3</v>
       </c>
       <c r="J13" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="5" t="s">
-        <v>66</v>
+      <c r="A14" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I14" s="5">
         <v>3</v>
       </c>
       <c r="J14" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="5" t="s">
-        <v>67</v>
+      <c r="A15" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I15" s="5">
         <v>3</v>
       </c>
       <c r="J15" s="5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="5" t="s">
-        <v>77</v>
+      <c r="A16" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I16" s="5">
         <v>3</v>
       </c>
       <c r="J16" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
-        <v>78</v>
+      <c r="A17" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I17" s="5">
         <v>3</v>
       </c>
       <c r="J17" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="5" t="s">
-        <v>79</v>
+      <c r="A18" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I18" s="5">
         <v>3</v>
       </c>
       <c r="J18" s="5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
